--- a/Data/EC/NIT-9005656775.xlsx
+++ b/Data/EC/NIT-9005656775.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF26D8A-4E7D-495B-8952-1A5D270A0669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3251DF-DDBC-4516-AFE4-BC9BAB9649D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E13F4BC1-BC66-49CE-ACFC-B447A4E7B9E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2F63CAD6-5EB6-4A0F-A52A-8B84B01CCCAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,64 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45748640</t>
+  </si>
+  <si>
+    <t>MARIA DEL ROSARIO PARRA TORRES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1052068040</t>
+  </si>
+  <si>
+    <t>LINA MARGARITA MARTINEZ ROBLES</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>1050949292</t>
   </si>
   <si>
     <t>LINA MARIA CASTELLON ESPINOSA</t>
   </si>
   <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>1709</t>
   </si>
   <si>
-    <t>1710</t>
-  </si>
-  <si>
     <t>1002241486</t>
   </si>
   <si>
     <t>KATHERINE DEL CARMEN PAJARO MENDOZA</t>
   </si>
   <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>2402</t>
   </si>
   <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
+    <t>1051417343</t>
+  </si>
+  <si>
+    <t>WILSON DANOVIS MUÑOZ MIRANDA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>3838464</t>
+  </si>
+  <si>
+    <t>IVAN DAVID MACARENO VERGARA</t>
   </si>
   <si>
     <t>1042579787</t>
@@ -98,91 +131,10 @@
     <t>EVERLIN VANESA AGAMEZ MARRUGO</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
     <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>1051417343</t>
-  </si>
-  <si>
-    <t>WILSON DANOVIS MUÑOZ MIRANDA</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1051419682</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE ARRIETA DAZA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>19897222</t>
-  </si>
-  <si>
-    <t>ORLANDO ALFARO PARRA</t>
-  </si>
-  <si>
-    <t>1143333700</t>
-  </si>
-  <si>
-    <t>STEPHANI DEL CARMEN VALENCIA OROZCO</t>
-  </si>
-  <si>
-    <t>1051417083</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO JULIO REBOLLEDO</t>
-  </si>
-  <si>
-    <t>1002196824</t>
-  </si>
-  <si>
-    <t>MELISSA PAOLA MORENO DAVILA</t>
-  </si>
-  <si>
-    <t>8950085</t>
-  </si>
-  <si>
-    <t>NAFER ENRIQUE CARO CERPA</t>
-  </si>
-  <si>
-    <t>1052068040</t>
-  </si>
-  <si>
-    <t>LINA MARGARITA MARTINEZ ROBLES</t>
-  </si>
-  <si>
-    <t>8853279</t>
-  </si>
-  <si>
-    <t>SIR JAVIER HERNANDEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>1047485369</t>
-  </si>
-  <si>
-    <t>HARTLEY PRETTEL GALAN</t>
-  </si>
-  <si>
-    <t>1192763716</t>
-  </si>
-  <si>
-    <t>MARGELIS ARROYO ZAMBRANO</t>
-  </si>
-  <si>
-    <t>9098296</t>
-  </si>
-  <si>
-    <t>ELKIN MALLARINO LLERENA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -596,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274DEFD3-ACB7-91E7-D1C2-0EAC1BADD99E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DD1A24-9FB0-4BD0-2807-4586EC5A26B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DDF9F4-CD01-44AF-B03A-2617FEA9B13A}">
-  <dimension ref="B2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA6770-72E2-4ADD-A19A-D74A4F73A9C4}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -972,7 +924,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +969,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1049,12 +1001,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1266362</v>
+        <v>564922</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1065,14 +1017,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
         <v>10</v>
@@ -1102,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1125,10 +1077,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30679</v>
+        <v>37000</v>
       </c>
       <c r="G16" s="18">
-        <v>766979</v>
+        <v>1850000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1139,19 +1091,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>30679</v>
+        <v>54600</v>
       </c>
       <c r="G17" s="18">
-        <v>766979</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1162,19 +1114,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>7936</v>
+        <v>30679</v>
       </c>
       <c r="G18" s="18">
-        <v>1487922</v>
+        <v>766979</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1185,19 +1137,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>59516</v>
+        <v>30679</v>
       </c>
       <c r="G19" s="18">
-        <v>1487922</v>
+        <v>766979</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1208,13 +1160,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
         <v>59516</v>
@@ -1231,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>45500</v>
+        <v>59516</v>
       </c>
       <c r="G21" s="18">
-        <v>1365000</v>
+        <v>1487922</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1254,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>54600</v>
+        <v>7936</v>
       </c>
       <c r="G22" s="18">
-        <v>1365000</v>
+        <v>1487922</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1277,19 +1229,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>1721</v>
+        <v>7375</v>
       </c>
       <c r="G23" s="18">
-        <v>184375</v>
+        <v>1144000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1300,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
-        <v>54600</v>
+        <v>1721</v>
       </c>
       <c r="G24" s="18">
-        <v>1365000</v>
+        <v>1144000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1323,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>54600</v>
+        <v>66600</v>
       </c>
       <c r="G25" s="18">
-        <v>1365000</v>
+        <v>1850000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1346,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>7375</v>
+        <v>54600</v>
       </c>
       <c r="G26" s="18">
-        <v>184375</v>
+        <v>1365000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1369,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>74000</v>
+        <v>54600</v>
       </c>
       <c r="G27" s="18">
-        <v>1850000</v>
+        <v>1365000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1398,299 +1350,69 @@
         <v>30</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
-        <v>74000</v>
+        <v>54600</v>
       </c>
       <c r="G28" s="18">
-        <v>1850000</v>
+        <v>1365000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="18">
-        <v>74000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1850000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="18">
-        <v>74000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1850000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F29" s="24">
+        <v>45500</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1365000</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1365000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="B34" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="18">
-        <v>74000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>184375</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="B35" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="18">
-        <v>74000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1850000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="24">
-        <v>74000</v>
-      </c>
-      <c r="G39" s="24">
-        <v>1850000</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005656775.xlsx
+++ b/Data/EC/NIT-9005656775.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3251DF-DDBC-4516-AFE4-BC9BAB9649D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3A4FF0-0A07-476D-9E28-8D5420C032AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2F63CAD6-5EB6-4A0F-A52A-8B84B01CCCAF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79F69CF8-D08A-4E12-B44D-1C22F674F39F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,57 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050949292</t>
+  </si>
+  <si>
+    <t>LINA MARIA CASTELLON ESPINOSA</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1002241486</t>
+  </si>
+  <si>
+    <t>KATHERINE DEL CARMEN PAJARO MENDOZA</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1042579787</t>
+  </si>
+  <si>
+    <t>EVERLIN VANESA AGAMEZ MARRUGO</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1051417343</t>
+  </si>
+  <si>
+    <t>WILSON DANOVIS MUÑOZ MIRANDA</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>45748640</t>
   </si>
   <si>
@@ -74,67 +125,79 @@
     <t>2507</t>
   </si>
   <si>
+    <t>3838464</t>
+  </si>
+  <si>
+    <t>IVAN DAVID MACARENO VERGARA</t>
+  </si>
+  <si>
+    <t>8853279</t>
+  </si>
+  <si>
+    <t>SIR JAVIER HERNANDEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>8950085</t>
+  </si>
+  <si>
+    <t>NAFER ENRIQUE CARO CERPA</t>
+  </si>
+  <si>
+    <t>9098296</t>
+  </si>
+  <si>
+    <t>ELKIN MALLARINO LLERENA</t>
+  </si>
+  <si>
     <t>1052068040</t>
   </si>
   <si>
     <t>LINA MARGARITA MARTINEZ ROBLES</t>
   </si>
   <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>1050949292</t>
-  </si>
-  <si>
-    <t>LINA MARIA CASTELLON ESPINOSA</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1002241486</t>
-  </si>
-  <si>
-    <t>KATHERINE DEL CARMEN PAJARO MENDOZA</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>1051417343</t>
-  </si>
-  <si>
-    <t>WILSON DANOVIS MUÑOZ MIRANDA</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>3838464</t>
-  </si>
-  <si>
-    <t>IVAN DAVID MACARENO VERGARA</t>
-  </si>
-  <si>
-    <t>1042579787</t>
-  </si>
-  <si>
-    <t>EVERLIN VANESA AGAMEZ MARRUGO</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
+    <t>19897222</t>
+  </si>
+  <si>
+    <t>ORLANDO ALFARO PARRA</t>
+  </si>
+  <si>
+    <t>1051417083</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO JULIO REBOLLEDO</t>
+  </si>
+  <si>
+    <t>1143333700</t>
+  </si>
+  <si>
+    <t>STEPHANI DEL CARMEN VALENCIA OROZCO</t>
+  </si>
+  <si>
+    <t>1051419682</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE ARRIETA DAZA</t>
+  </si>
+  <si>
+    <t>1192763716</t>
+  </si>
+  <si>
+    <t>MARGELIS ARROYO ZAMBRANO</t>
+  </si>
+  <si>
+    <t>1047485369</t>
+  </si>
+  <si>
+    <t>HARTLEY PRETTEL GALAN</t>
+  </si>
+  <si>
+    <t>1002196824</t>
+  </si>
+  <si>
+    <t>MELISSA PAOLA MORENO DAVILA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -233,7 +296,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,23 +511,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,10 +555,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DD1A24-9FB0-4BD0-2807-4586EC5A26B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B049E6-7164-6AF3-5EA3-C8DF9C35F82E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA6770-72E2-4ADD-A19A-D74A4F73A9C4}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E287095E-5A67-4670-8953-EDA1F904A6DE}">
+  <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -924,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -969,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1001,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>564922</v>
+        <v>1536622</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1017,17 +1080,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1054,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1077,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37000</v>
+        <v>30679</v>
       </c>
       <c r="G16" s="18">
-        <v>1850000</v>
+        <v>766979</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>54600</v>
+        <v>30679</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>766979</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
-        <v>30679</v>
+        <v>7936</v>
       </c>
       <c r="G18" s="18">
-        <v>766979</v>
+        <v>1487922</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1137,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>30679</v>
+        <v>59516</v>
       </c>
       <c r="G19" s="18">
-        <v>766979</v>
+        <v>1487922</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1160,13 +1223,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>59516</v>
@@ -1183,19 +1246,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F21" s="18">
-        <v>59516</v>
+        <v>45500</v>
       </c>
       <c r="G21" s="18">
-        <v>1487922</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1206,19 +1269,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>7936</v>
+        <v>54600</v>
       </c>
       <c r="G22" s="18">
-        <v>1487922</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1229,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="18">
-        <v>7375</v>
+        <v>1721</v>
       </c>
       <c r="G23" s="18">
-        <v>1144000</v>
+        <v>1850000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1252,19 +1315,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F24" s="18">
-        <v>1721</v>
+        <v>54600</v>
       </c>
       <c r="G24" s="18">
-        <v>1144000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1275,16 +1338,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
-        <v>66600</v>
+        <v>7375</v>
       </c>
       <c r="G25" s="18">
         <v>1850000</v>
@@ -1298,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>54600</v>
       </c>
       <c r="G26" s="18">
-        <v>1365000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1321,19 +1384,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>54600</v>
+        <v>37000</v>
       </c>
       <c r="G27" s="18">
-        <v>1365000</v>
+        <v>1850000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1350,69 +1413,391 @@
         <v>30</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>54600</v>
+        <v>66600</v>
       </c>
       <c r="G28" s="18">
-        <v>1365000</v>
+        <v>1850000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="18">
+        <v>75600</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1890000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="24">
-        <v>45500</v>
-      </c>
-      <c r="G29" s="24">
-        <v>1365000</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="E42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="18">
+        <v>74000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1850000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
